--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="8445"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>Chức năng chính</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Đăng nhập / Thoát tài khoản</t>
   </si>
   <si>
-    <t>Trang hồ sơ giáo viên, học sinh</t>
-  </si>
-  <si>
     <t>Cho phép tìm kiếm theo bộ môn, lớp học (xem csdl để tự tổ chức cho hợp lý)</t>
   </si>
   <si>
@@ -111,15 +108,6 @@
     <t>Trang admin</t>
   </si>
   <si>
-    <t>Quản lý điểm</t>
-  </si>
-  <si>
-    <t>Không giới hạn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trang tra cứu điểm (tích hợp chung với quản lý điểm) </t>
-  </si>
-  <si>
     <t>Cho phép tìm kiếm theo thông tin học sinh</t>
   </si>
   <si>
@@ -241,13 +229,73 @@
   </si>
   <si>
     <t>Khi commit bất kỳ file gì, đều phải viết comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thịnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huệ</t>
+  </si>
+  <si>
+    <t>Thịnh</t>
+  </si>
+  <si>
+    <t>1+1/2</t>
+  </si>
+  <si>
+    <t>Trang hồ sơ giáo viên</t>
+  </si>
+  <si>
+    <t>Giáo viên</t>
+  </si>
+  <si>
+    <t>Quản lý phân công giáo viên bộ môn</t>
+  </si>
+  <si>
+    <t>Quản lý phân công giáo viên chủ nhiệm</t>
+  </si>
+  <si>
+    <t>Quản lý lớp</t>
+  </si>
+  <si>
+    <t>nhập và sửa điểm</t>
+  </si>
+  <si>
+    <t>Quản lý điểm theo bộ môn</t>
+  </si>
+  <si>
+    <t>Trang tra cứu điểm</t>
+  </si>
+  <si>
+    <t>phân công giáo viên dạy môn học</t>
+  </si>
+  <si>
+    <t>phân công giáo viên chủ nhiệm lớp</t>
+  </si>
+  <si>
+    <t>thêm ,xóa sửa lớp</t>
+  </si>
+  <si>
+    <t>thêm danh sách học sinh vào trong lớp</t>
+  </si>
+  <si>
+    <t>Quản lý xếp lớp học</t>
+  </si>
+  <si>
+    <t>huệ</t>
+  </si>
+  <si>
+    <t>thịnh</t>
+  </si>
+  <si>
+    <t>thêm ,xóa ,sửa học sinh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,9 +486,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -454,9 +499,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,15 +509,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -492,63 +525,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -648,7 +699,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -683,7 +733,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,150 +908,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="16" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="75" customHeight="1">
+      <c r="A5" s="44"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="44"/>
+      <c r="B7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="44"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="33" customHeight="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="52.5" customHeight="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" ht="52.5" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35" t="s">
+      <c r="C11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:5" s="21" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:5" s="16" customFormat="1" ht="24.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>47</v>
+      <c r="C13" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>2</v>
@@ -1011,224 +1060,216 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:5" ht="49.5">
+      <c r="A14" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="22">
         <v>0.5</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:5" ht="49.5">
+      <c r="A15" s="34"/>
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="22">
         <v>0.5</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14" t="s">
+      <c r="E15" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="49.5">
+      <c r="A16" s="34"/>
+      <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="22">
         <v>0.5</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14" t="s">
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="49.5">
+      <c r="A17" s="34"/>
+      <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:11" ht="66.75" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14" t="s">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="27"/>
+      <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>1</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="27"/>
+      <c r="B22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="22">
         <v>0.5</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="29">
+      <c r="D24" s="12"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="27"/>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="22">
         <v>0.5</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" ht="49.5">
+      <c r="A26" s="27"/>
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="66">
+      <c r="A27" s="27"/>
+      <c r="B27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="66">
+      <c r="A28" s="27"/>
+      <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="66" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>34</v>
+    </row>
+    <row r="29" spans="1:11" s="5" customFormat="1" ht="33">
+      <c r="A29" s="27"/>
+      <c r="B29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1237,27 +1278,39 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="12"/>
+    <row r="30" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="5" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A31" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1265,18 +1318,20 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="12"/>
+    <row r="32" spans="1:11" s="5" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="24">
+        <v>2</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1284,15 +1339,19 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="14" t="s">
-        <v>73</v>
+    <row r="33" spans="1:11" s="5" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="24">
+        <v>2</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1301,179 +1360,232 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="66" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="14" t="s">
+    <row r="34" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="24">
+        <v>3</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="39" customHeight="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="66">
+      <c r="A37" s="28"/>
+      <c r="B37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="28"/>
+      <c r="B38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="99">
+      <c r="A39" s="28"/>
+      <c r="B39" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="33">
+      <c r="A40" s="28"/>
+      <c r="B40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="17" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" s="17" customFormat="1">
+      <c r="B44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="7">
         <v>3</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="99" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="132" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="8">
-        <v>3</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="1:11" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="24"/>
-    </row>
-    <row r="46" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="23"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="24"/>
-    </row>
-    <row r="47" spans="1:11" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:11" s="22" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="24"/>
-    </row>
-    <row r="50" spans="2:4" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="24"/>
-    </row>
-    <row r="51" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="23"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="24"/>
-    </row>
-    <row r="52" spans="2:4" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="24"/>
-    </row>
-    <row r="53" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:11" s="17" customFormat="1">
+      <c r="B45" s="18"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B46" s="18"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:11" s="17" customFormat="1">
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:11" s="17" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B48" s="18"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="2:5" s="17" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B49" s="18"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="2:5" s="17" customFormat="1">
+      <c r="B50" s="18"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="2:5" s="17" customFormat="1" ht="39" customHeight="1">
+      <c r="B51" s="18"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="2:5" s="17" customFormat="1">
+      <c r="B52" s="18"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="2:5" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B53" s="18"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B54" s="18"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="18"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A31:A40"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B3:B6"/>
@@ -1485,13 +1597,6 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1499,24 +1604,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -258,9 +258,6 @@
     <t>Quản lý lớp</t>
   </si>
   <si>
-    <t>nhập và sửa điểm</t>
-  </si>
-  <si>
     <t>Quản lý điểm theo bộ môn</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>thêm ,xóa ,sửa học sinh</t>
+  </si>
+  <si>
+    <t>nhập và sửa điểm môn học</t>
   </si>
 </sst>
 </file>
@@ -538,6 +538,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,9 +596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,45 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -926,122 +926,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="23" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="75" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="46" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="44"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="44"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" ht="33" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" s="16" customFormat="1" ht="24.75" customHeight="1">
       <c r="A13" s="4" t="s">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="49.5">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1078,7 +1078,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="49.5">
-      <c r="A15" s="34"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1093,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="49.5">
-      <c r="A16" s="34"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5">
-      <c r="A17" s="34"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="66.75" customHeight="1">
-      <c r="A18" s="35"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="12" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1160,7 +1160,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="27"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="27"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="12" t="s">
         <v>55</v>
       </c>
@@ -1184,14 +1184,14 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1204,7 +1204,7 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="27"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="49.5">
-      <c r="A26" s="27"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1232,7 +1232,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="66">
-      <c r="A27" s="27"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="66">
-      <c r="A28" s="27"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -1258,9 +1258,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1" ht="33">
-      <c r="A29" s="27"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>74</v>
@@ -1283,7 +1283,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
@@ -1292,11 +1292,11 @@
         <v>71</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="5" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -1306,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1319,7 +1319,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" s="5" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="12" t="s">
         <v>77</v>
       </c>
@@ -1327,10 +1327,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1340,18 +1340,18 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" s="5" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="24">
         <v>2</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="28"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="12" t="s">
         <v>79</v>
       </c>
@@ -1369,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="39" customHeight="1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="12" t="s">
         <v>67</v>
       </c>
@@ -1393,11 +1393,11 @@
         <v>72</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="12" t="s">
         <v>68</v>
       </c>
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="66">
-      <c r="A37" s="28"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="12" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="28"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="12" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="99">
-      <c r="A39" s="28"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="12" t="s">
         <v>37</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="33">
-      <c r="A40" s="28"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="12" t="s">
         <v>35</v>
       </c>
@@ -1576,13 +1576,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A31:A40"/>
@@ -1597,6 +1590,13 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="8445"/>
@@ -294,8 +294,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -470,11 +470,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -538,6 +569,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,9 +611,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -580,35 +638,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,6 +736,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -733,6 +771,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -908,14 +947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
@@ -925,41 +964,41 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="33" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29" t="s">
         <v>7</v>
@@ -967,8 +1006,8 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" ht="75" customHeight="1">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29" t="s">
         <v>58</v>
@@ -976,37 +1015,37 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
       <c r="B7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="34"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1">
-      <c r="A9" s="34"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29" t="s">
         <v>62</v>
@@ -1014,36 +1053,36 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
       <c r="B10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A11" s="35"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
       <c r="B11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" s="16" customFormat="1" ht="24.75" customHeight="1">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:5" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +1099,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="49.5">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1077,8 +1116,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="49.5">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -1092,8 +1131,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="49.5">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1146,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="49.5">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
       <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
@@ -1122,8 +1161,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="66.75" customHeight="1">
-      <c r="A18" s="48"/>
+    <row r="18" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
       <c r="B18" s="12" t="s">
         <v>9</v>
       </c>
@@ -1137,15 +1176,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1159,8 +1198,8 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="41"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
       <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
@@ -1170,8 +1209,8 @@
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="41"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
       <c r="B22" s="12" t="s">
         <v>55</v>
       </c>
@@ -1183,15 +1222,15 @@
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="41" t="s">
+    <row r="23" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1203,8 +1242,8 @@
       <c r="D24" s="12"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="41"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1216,8 +1255,8 @@
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="49.5">
-      <c r="A26" s="41"/>
+    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
       <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1231,8 +1270,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="66">
-      <c r="A27" s="41"/>
+    <row r="27" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
       <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
@@ -1242,8 +1281,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="66">
-      <c r="A28" s="41"/>
+    <row r="28" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -1257,8 +1296,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" ht="33">
-      <c r="A29" s="41"/>
+    <row r="29" spans="1:11" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
       <c r="B29" s="12" t="s">
         <v>81</v>
       </c>
@@ -1278,7 +1317,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="30" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>76</v>
       </c>
@@ -1295,8 +1334,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="5" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:11" s="5" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -1318,8 +1357,8 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:11" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49"/>
       <c r="B32" s="12" t="s">
         <v>77</v>
       </c>
@@ -1339,8 +1378,8 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" s="5" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:11" s="5" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
       <c r="B33" s="12" t="s">
         <v>86</v>
       </c>
@@ -1360,8 +1399,8 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
       <c r="B34" s="12" t="s">
         <v>79</v>
       </c>
@@ -1381,8 +1420,8 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="39" customHeight="1">
-      <c r="A35" s="42"/>
+    <row r="35" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
       <c r="B35" s="12" t="s">
         <v>67</v>
       </c>
@@ -1396,8 +1435,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A36" s="42"/>
+    <row r="36" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
       <c r="B36" s="12" t="s">
         <v>68</v>
       </c>
@@ -1407,8 +1446,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="66">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
       <c r="B37" s="12" t="s">
         <v>33</v>
       </c>
@@ -1422,8 +1461,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="42"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
       <c r="B38" s="12" t="s">
         <v>31</v>
       </c>
@@ -1437,8 +1476,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="99">
-      <c r="A39" s="42"/>
+    <row r="39" spans="1:11" ht="99" x14ac:dyDescent="0.25">
+      <c r="A39" s="49"/>
       <c r="B39" s="12" t="s">
         <v>37</v>
       </c>
@@ -1452,8 +1491,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="33">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A40" s="49"/>
       <c r="B40" s="12" t="s">
         <v>35</v>
       </c>
@@ -1467,8 +1506,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
       <c r="B41" s="12" t="s">
         <v>42</v>
       </c>
@@ -1482,10 +1521,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="27" customHeight="1">
-      <c r="A42" s="10" t="s">
-        <v>44</v>
-      </c>
+    <row r="42" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
       <c r="B42" s="12" t="s">
         <v>32</v>
       </c>
@@ -1499,13 +1536,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="17" customFormat="1" ht="23.25" customHeight="1">
+    <row r="43" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:11" s="17" customFormat="1">
+    <row r="44" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1517,58 +1558,58 @@
       </c>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:11" s="17" customFormat="1">
+    <row r="45" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
       <c r="C45" s="21"/>
       <c r="D45" s="19"/>
     </row>
-    <row r="46" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
+    <row r="46" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
       <c r="C46" s="21"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:11" s="17" customFormat="1">
+    <row r="47" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="21"/>
       <c r="D47" s="19"/>
     </row>
-    <row r="48" spans="1:11" s="17" customFormat="1" ht="22.5" customHeight="1">
+    <row r="48" spans="1:11" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="21"/>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="2:5" s="17" customFormat="1" ht="24.75" customHeight="1">
+    <row r="49" spans="2:5" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="21"/>
       <c r="D49" s="19"/>
     </row>
-    <row r="50" spans="2:5" s="17" customFormat="1">
+    <row r="50" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="21"/>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" spans="2:5" s="17" customFormat="1" ht="39" customHeight="1">
+    <row r="51" spans="2:5" s="17" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="C51" s="21"/>
       <c r="D51" s="19"/>
     </row>
-    <row r="52" spans="2:5" s="17" customFormat="1">
+    <row r="52" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="18"/>
       <c r="C52" s="21"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="2:5" s="17" customFormat="1" ht="25.5" customHeight="1">
+    <row r="53" spans="2:5" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
       <c r="C53" s="21"/>
       <c r="D53" s="19"/>
     </row>
-    <row r="54" spans="2:5" ht="19.5" customHeight="1">
+    <row r="54" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
       <c r="C54" s="21"/>
       <c r="D54" s="19"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
       <c r="C55" s="21"/>
       <c r="D55" s="19"/>
@@ -1576,9 +1617,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A31:A40"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B3:B6"/>
@@ -1590,13 +1637,7 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A31:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1604,24 +1645,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
